--- a/output/StructureDefinition-patient-profile.xlsx
+++ b/output/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-10T13:33:39+05:45</t>
+    <t>2025-08-12T23:24:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-patient-profile.xlsx
+++ b/output/StructureDefinition-patient-profile.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-12T23:24:39+05:45</t>
+    <t>2025-08-13T23:06:39+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
